--- a/config_11.9/prop_clear_server.xlsx
+++ b/config_11.9/prop_clear_server.xlsx
@@ -2348,7 +2348,7 @@
         <v>1636416000</v>
       </c>
       <c r="E62" s="14">
-        <v>1636991999</v>
+        <v>1637596799</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -2365,7 +2365,7 @@
         <v>1636416000</v>
       </c>
       <c r="E63" s="14">
-        <v>1636991999</v>
+        <v>1637596799</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -2382,7 +2382,7 @@
         <v>1636416000</v>
       </c>
       <c r="E64" s="14">
-        <v>1636991999</v>
+        <v>1637596799</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
